--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.119324666666667</v>
+        <v>4.077011333333332</v>
       </c>
       <c r="H2">
-        <v>9.357974</v>
+        <v>12.231034</v>
       </c>
       <c r="I2">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044627</v>
       </c>
       <c r="J2">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044628</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N2">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q2">
-        <v>14.58402400094044</v>
+        <v>7.525219772711553</v>
       </c>
       <c r="R2">
-        <v>131.256216008464</v>
+        <v>67.72697795440399</v>
       </c>
       <c r="S2">
-        <v>0.03546296467383102</v>
+        <v>0.01417596431906529</v>
       </c>
       <c r="T2">
-        <v>0.03546296467383102</v>
+        <v>0.0141759643190653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.119324666666667</v>
+        <v>4.077011333333332</v>
       </c>
       <c r="H3">
-        <v>9.357974</v>
+        <v>12.231034</v>
       </c>
       <c r="I3">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044627</v>
       </c>
       <c r="J3">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q3">
-        <v>258.7705327775651</v>
+        <v>338.2175655329361</v>
       </c>
       <c r="R3">
-        <v>2328.934794998086</v>
+        <v>3043.958089796426</v>
       </c>
       <c r="S3">
-        <v>0.629234445988807</v>
+        <v>0.6371322414346462</v>
       </c>
       <c r="T3">
-        <v>0.629234445988807</v>
+        <v>0.6371322414346462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.119324666666667</v>
+        <v>4.077011333333332</v>
       </c>
       <c r="H4">
-        <v>9.357974</v>
+        <v>12.231034</v>
       </c>
       <c r="I4">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044627</v>
       </c>
       <c r="J4">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044628</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N4">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q4">
-        <v>122.7389987847451</v>
+        <v>170.0049254860782</v>
       </c>
       <c r="R4">
-        <v>1104.650989062706</v>
+        <v>1530.044329374704</v>
       </c>
       <c r="S4">
-        <v>0.2984559527414467</v>
+        <v>0.3202542690507512</v>
       </c>
       <c r="T4">
-        <v>0.2984559527414466</v>
+        <v>0.3202542690507512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.358001</v>
       </c>
       <c r="I5">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="J5">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N5">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q5">
-        <v>0.5579300793484444</v>
+        <v>0.2202623428117778</v>
       </c>
       <c r="R5">
-        <v>5.021370714136</v>
+        <v>1.982361085306</v>
       </c>
       <c r="S5">
-        <v>0.001356680069446248</v>
+        <v>0.0004149288933535543</v>
       </c>
       <c r="T5">
-        <v>0.001356680069446248</v>
+        <v>0.0004149288933535543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.358001</v>
       </c>
       <c r="I6">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="J6">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>248.871689</v>
       </c>
       <c r="O6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q6">
         <v>9.899590392632112</v>
@@ -818,10 +818,10 @@
         <v>89.096313533689</v>
       </c>
       <c r="S6">
-        <v>0.02407215075596907</v>
+        <v>0.01864878959259248</v>
       </c>
       <c r="T6">
-        <v>0.02407215075596907</v>
+        <v>0.01864878959259248</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.358001</v>
       </c>
       <c r="I7">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="J7">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N7">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q7">
-        <v>4.695533916202112</v>
+        <v>4.976025193695111</v>
       </c>
       <c r="R7">
-        <v>42.259805245819</v>
+        <v>44.78422674325601</v>
       </c>
       <c r="S7">
-        <v>0.01141780577050018</v>
+        <v>0.009373806709591193</v>
       </c>
       <c r="T7">
-        <v>0.01141780577050018</v>
+        <v>0.009373806709591193</v>
       </c>
     </row>
   </sheetData>
